--- a/CB_template.xlsx
+++ b/CB_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,16 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="9075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CommonBrain" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ImgUrl">Sheet1!$B$1</definedName>
-    <definedName name="Title">Sheet1!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommonBrain!$B$2:$H$2</definedName>
+    <definedName name="CBrainHover">CommonBrain!$F$2</definedName>
+    <definedName name="CBrainImage">CommonBrain!$B$1</definedName>
+    <definedName name="CBrainMajor">CommonBrain!$C$2</definedName>
+    <definedName name="CBrainPage">CommonBrain!$H$2</definedName>
+    <definedName name="CBrainSheet">CommonBrain!$A$2</definedName>
+    <definedName name="CBrainSource">CommonBrain!$G$2</definedName>
+    <definedName name="CBrainSpecific">CommonBrain!$D$2</definedName>
+    <definedName name="CBrainTab">CommonBrain!$B$2</definedName>
+    <definedName name="CBrainTitle">CommonBrain!$A$1</definedName>
+    <definedName name="CBrainValue">CommonBrain!$E$2</definedName>
+    <definedName name="ImgUrl">CommonBrain!$B$1</definedName>
+    <definedName name="Title">CommonBrain!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -33,11 +44,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andy Rudenstein</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is for .pdf files where user should be directed to a particular page number.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>CB ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Major Category</t>
   </si>
@@ -57,6 +100,12 @@
     <t>Page #</t>
   </si>
   <si>
+    <t>Tab Name</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
     <t>Commonbrain Template</t>
   </si>
   <si>
@@ -67,10 +116,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +192,55 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,8 +274,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -194,13 +301,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
+    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Currency" xfId="10" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Percent 2" xfId="9"/>
     <cellStyle name="Style 1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,79 +666,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="212" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>200</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="11"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="7"/>
+      <c r="G86" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H2"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>